--- a/Main/static/main/assets/EXCEL-TEMPLATE.xlsx
+++ b/Main/static/main/assets/EXCEL-TEMPLATE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrian\Documents\GitHub\AccSys\Main\static\main\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vince Lainez\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -43,9 +43,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ h:mm"/>
-    <numFmt numFmtId="165" formatCode="&quot;₱&quot;#,##0.00"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -524,11 +523,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -853,15 +850,12 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
     <col min="6" max="6" width="23.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -869,16 +863,16 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
